--- a/assets/disciplinas/LOM3059.xlsx
+++ b/assets/disciplinas/LOM3059.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-6</t>
+    <t>EM-7</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOM3059.xlsx
+++ b/assets/disciplinas/LOM3059.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A reologia é a ciência que estuda o escoamento de materiais. O seu conhecimento é necessário para poder entender o processamento dos materiais poliméricos. A disciplina visa o ensino dos conceitos básicos de reologia de materiais (polímeros fundidos) para o estudante de engenharia de materiais, a disciplina visa também familiarizar o futuro engenheiro com os métodos experimentais para avaliação das propriedades reológicas de materiais poliméricos.Fornecer conhecimentos técnicos para o aluno escolher corretamente a técnica mais adequada de processamento de polímeros, bem como poder manipular e especificar corretamente as matérias primas, os equipamentos de processamento, os moldes e as máquinas adequadamente para determinadas conformações.</t>
+    <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840897 - Clodoaldo Saron</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos de reologia. Processamento de polímeros: matérias-primas, máquinas e moldes.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução a reologia. Tipos de fluxo. 2. Sólidos hookeanos e fluidos newtonianos. 3. Fluidos newtonianos e não newtonianos. 4. Viscoelasticidade. Viscosidade extensional. Diferenças de tensões normais. Variáveis que afetam a viscosidade de polímeros. 5. Importância da Reologia no processamento de polímeros. Fluxos utilizados para caracterizar materiais: fluxo de arraste, fluxos devido a diferença de pressão e escoamento em dutos. 6. Extrusão de polímeros: equipamentos, roscas, matrizes e aplicações. 7. Injeção de polímeros: equipamento, moldes, controle da operação, correção de problemas e aplicações. 8. Outras técnicas de processamento de termoplásticos: sopro, prensagem, termoformagem, calandragem, fiação, rotomoldagem. 9. Blendas e Compósitos Poliméricas: formas de obtenção, miscibilidade, compatibilidade e aplicações. 10. Técnicas de processamento de polímeros termorrígidos: moldagem manual, moldagem por pistola, pultrusão, enrolamento de filamento, prensagem, etc.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de provas escritas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BRETAS, R. E. S.; D´ÁVILA, M. A. Reologia de Polímeros Fundidos, São Carlos, Eduscar, 2005.MANRICH, S. Processamento de termoplásticos – Rosca única, extrusão &amp; matrizes, injeção &amp; moldes,. McCRUM, N. G., BUCKLEY, C. P., BUCKNALl, C. B. Principles of Polymer Engineering, New York, Oxford University Press, 1997.Blass A., Processamento de Polímeros, editora da UFSC.CHAWLA, K. K. Composite Materials Science and Engineering, Spring-Verlag ed., Berlin, 1987.BRETT, A.M.O., BRETT, C.M. Electroquímica: Princípios, métodos e aplicações. Livraria Medina, Coimbra, 1996.FONTANA, M. G. Corrosion Engineering. 3ª Edição. McGraw-Hill, 1987GENTIL, V. Corrosão. 5ª Edição, Rio de Janeiro, Ed. LTC, 2007 RAMANHATAN, L. Corrosão e seu Controle. São Paulo. Ed. Hemus, 1990SHREIR, L.L., JARMAN, R.A., BURSTEIN, G.T. Corrosion. 3ª Edição. Oxford, Butterworth Heinemann, volume 2, 2000WOLYNEC, S. Técnicas Eletroquímicas em Corrosão, EDUSP, São Paulo, 2003</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3059.xlsx
+++ b/assets/disciplinas/LOM3059.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>A reologia é a ciência que estuda o escoamento de materiais. O seu conhecimento é necessário para poder entender o processamento dos materiais poliméricos. A disciplina visa o ensino dos conceitos básicos de reologia de materiais (polímeros fundidos) para o estudante de engenharia de materiais, a disciplina visa também familiarizar o futuro engenheiro com os métodos experimentais para avaliação das propriedades reológicas de materiais poliméricos.Fornecer conhecimentos técnicos para o aluno escolher corretamente a técnica mais adequada de processamento de polímeros, bem como poder manipular e especificar corretamente as matérias primas, os equipamentos de processamento, os moldes e as máquinas adequadamente para determinadas conformações.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Rheology is the science that studies the flow of materials. Your knowledge is necessary to understand the processing of polymer materials. The discipline aims to teach the basic concepts of material rheology (fused polymers) to the student of materials engineering, the discipline also aims to familiarize the future engineer with the experimental methods to evaluate the rheological properties of polymeric materials. Provide technical knowledge to the student to correctly choose the most appropriate polymer processing technique, as well as be able to correctly handle and specify raw materials, processing equipment, molds and machines appropriately for certain conformations.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Rheology is the science that studies the flow of materials. Your knowledge is necessary to understand the processing of polymer materials. The discipline aims to teach the basic concepts of material rheology (fused polymers) to the student of materials engineering, the discipline also aims to familiarize the future engineer with the experimental methods to evaluate the rheological properties of polymeric materials. Provide technical knowledge to the student to correctly choose the most appropriate polymer processing technique, as well as be able to correctly handle and specify raw materials, processing equipment, molds and machines appropriately for certain conformations.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Fundamentos de reologia. Processamento de polímeros: matérias-primas, máquinas e moldes.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução a reologia. Tipos de fluxo. 2. Sólidos hookeanos e fluidos newtonianos. 3. Fluidos newtonianos e não newtonianos. 4. Viscoelasticidade. Viscosidade extensional. Diferenças de tensões normais. Variáveis que afetam a viscosidade de polímeros. 5. Importância da Reologia no processamento de polímeros. Fluxos utilizados para caracterizar materiais: fluxo de arraste, fluxos devido a diferença de pressão e escoamento em dutos. 6. Extrusão de polímeros: equipamentos, roscas, matrizes e aplicações. 7. Injeção de polímeros: equipamento, moldes, controle da operação, correção de problemas e aplicações. 8. Outras técnicas de processamento de termoplásticos: sopro, prensagem, termoformagem, calandragem, fiação, rotomoldagem. 9. Blendas e Compósitos Poliméricas: formas de obtenção, miscibilidade, compatibilidade e aplicações. 10. Técnicas de processamento de polímeros termorrígidos: moldagem manual, moldagem por pistola, pultrusão, enrolamento de filamento, prensagem, etc.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de provas escritas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas.</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>BRETAS, R. E. S.; D´ÁVILA, M. A. Reologia de Polímeros Fundidos, São Carlos, Eduscar, 2005.MANRICH, S. Processamento de termoplásticos – Rosca única, extrusão &amp; matrizes, injeção &amp; moldes,. McCRUM, N. G., BUCKLEY, C. P., BUCKNALl, C. B. Principles of Polymer Engineering, New York, Oxford University Press, 1997.Blass A., Processamento de Polímeros, editora da UFSC.CHAWLA, K. K. Composite Materials Science and Engineering, Spring-Verlag ed., Berlin, 1987.BRETT, A.M.O., BRETT, C.M. Electroquímica: Princípios, métodos e aplicações. Livraria Medina, Coimbra, 1996.FONTANA, M. G. Corrosion Engineering. 3ª Edição. McGraw-Hill, 1987GENTIL, V. Corrosão. 5ª Edição, Rio de Janeiro, Ed. LTC, 2007 RAMANHATAN, L. Corrosão e seu Controle. São Paulo. Ed. Hemus, 1990SHREIR, L.L., JARMAN, R.A., BURSTEIN, G.T. Corrosion. 3ª Edição. Oxford, Butterworth Heinemann, volume 2, 2000WOLYNEC, S. Técnicas Eletroquímicas em Corrosão, EDUSP, São Paulo, 2003</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
